--- a/Snowfox To-Do List.xlsx
+++ b/Snowfox To-Do List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Task</t>
   </si>
@@ -36,12 +36,6 @@
   </si>
   <si>
     <t>% Complete</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Low</t>
   </si>
   <si>
     <t>Not Started</t>
@@ -69,9 +63,6 @@
     <t>Do I even want to add this on the map?</t>
   </si>
   <si>
-    <t>Check Helo Ops</t>
-  </si>
-  <si>
     <t>Need to check CTLD and snowfox based helo ops for correct functionality</t>
   </si>
   <si>
@@ -94,6 +85,39 @@
   </si>
   <si>
     <t>Need to add respawn/rapair to BASECAP</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Move to DSMC CSAR</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Change Carrier CAP waypoints to extend further north</t>
+  </si>
+  <si>
+    <t>1-High</t>
+  </si>
+  <si>
+    <t>3-Low</t>
+  </si>
+  <si>
+    <t>2-Normal</t>
+  </si>
+  <si>
+    <t>Add GRID coordinate to all mission targets</t>
+  </si>
+  <si>
+    <t>Go through mission targets and verify they still exist</t>
+  </si>
+  <si>
+    <t>Check Snowfox native Helo Ops</t>
+  </si>
+  <si>
+    <t>tested working</t>
   </si>
 </sst>
 </file>
@@ -743,15 +767,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2457451</xdr:colOff>
+      <xdr:colOff>4905376</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3328573</xdr:colOff>
+      <xdr:colOff>5776498</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
+      <xdr:rowOff>914400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -774,7 +798,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8477251" y="438151"/>
+          <a:off x="13639801" y="266701"/>
           <a:ext cx="871122" cy="895349"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -789,7 +813,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:F44" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B3:F44"/>
+  <autoFilter ref="B3:F44">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="0%"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="B4:F44">
     <sortCondition ref="C3:C44"/>
   </sortState>
@@ -1113,37 +1143,37 @@
   <dimension ref="B1:F44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45" style="1" customWidth="1"/>
+    <col min="6" max="6" width="76.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="2.625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="F1" s="2">
         <f ca="1">YEAR(TODAY())</f>
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1157,382 +1187,418 @@
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>6</v>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="11" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>6</v>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="4"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="4"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="4"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="4"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="4"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="4"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="4"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="4"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1613,7 +1679,7 @@
       <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C44">
-      <formula1>"Low, Normal, High"</formula1>
+      <formula1>"3-Low, 2-Normal, 1-High"</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="E4:E44">
       <formula1>"0%,25%,50%,75%,100%"</formula1>

--- a/Snowfox To-Do List.xlsx
+++ b/Snowfox To-Do List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.WAYNE\Saved Games\My_Missions\JTF-1\FUN-MAP_SNOW_FOX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.WAYNE\Saved Games\My_Missions\Moose Lua\MOOSE-2.7.1\JTF-1\FUN-MAP_SNOW_FOX\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>Task</t>
   </si>
@@ -118,6 +118,21 @@
   </si>
   <si>
     <t>tested working</t>
+  </si>
+  <si>
+    <t>J-11 set to cold starts</t>
+  </si>
+  <si>
+    <t>J-11 move spawns to different location as AI spawns at same spot</t>
+  </si>
+  <si>
+    <t>Deferred</t>
+  </si>
+  <si>
+    <t>Make FARP harriers Hot starts</t>
+  </si>
+  <si>
+    <t>Check LHA route</t>
   </si>
 </sst>
 </file>
@@ -814,6 +829,11 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:F44" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B3:F44">
+    <filterColumn colId="2">
+      <filters blank="1">
+        <filter val="Not Started"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="0%"/>
@@ -1143,7 +1163,7 @@
   <dimension ref="B1:F44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1151,7 +1171,7 @@
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="76.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="76.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="2.625" style="1" customWidth="1"/>
@@ -1220,7 +1240,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1228,29 +1248,29 @@
         <v>24</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1258,7 +1278,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -1267,24 +1287,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+    <row r="9" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>26</v>
@@ -1295,9 +1315,7 @@
       <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
@@ -1316,80 +1334,82 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5" t="s">
+    <row r="12" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>4</v>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="2:6" ht="28.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>4</v>
+      <c r="D15" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
@@ -1424,31 +1444,63 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
